--- a/ExcelScript/UT_Test02.xlsx
+++ b/ExcelScript/UT_Test02.xlsx
@@ -62,37 +62,37 @@
   </si>
   <si>
     <t>画面</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>SZHC兪</t>
     <rPh sb="4" eb="5">
       <t>ユ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Sleep➡</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1</t>
@@ -120,89 +120,89 @@
   </si>
   <si>
     <t>座標Y</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Pic➡</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>番号⬇</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ディレクトリ</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ファイル名</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>パラメータ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>パタン</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>判定</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>観点No</t>
     <rPh sb="0" eb="2">
       <t>カンテン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>名前を付けて保存</t>
     <rPh sb="1" eb="2">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>template1.pdf</t>
@@ -212,15 +212,15 @@
   </si>
   <si>
     <t>ケースNo</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>File\Case001</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>File\Case002</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -237,7 +237,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AutoTest</t>
@@ -368,47 +368,55 @@
       </rPr>
       <t>ait</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Index:1</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Click</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>AAA</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Click</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>WindowsForms10.BUTTON.app.0.141b42a_r6_ad1</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Key:AAA</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,37 +574,37 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - アクセント 6" xfId="5" builtinId="50"/>
@@ -942,7 +950,7 @@
       <c r="G2" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1125,7 +1133,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1134,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1874,7 +1882,7 @@
         <v>170</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -1994,7 +2002,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8">
         <v>826</v>
@@ -2007,7 +2015,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2460,7 +2468,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -2487,7 +2495,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -2495,7 +2503,7 @@
       <c r="M52" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2560,7 +2568,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelScript/UT_Test02.xlsx
+++ b/ExcelScript/UT_Test02.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
   <si>
     <t>NO</t>
   </si>
@@ -62,37 +62,37 @@
   </si>
   <si>
     <t>画面</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>SZHC兪</t>
     <rPh sb="4" eb="5">
       <t>ユ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Sleep➡</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1</t>
@@ -120,89 +120,89 @@
   </si>
   <si>
     <t>座標Y</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Pic➡</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>番号⬇</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ディレクトリ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ファイル名</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>パラメータ</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>パタン</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>判定</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>観点No</t>
     <rPh sb="0" eb="2">
       <t>カンテン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>完済確認登録　Version 1.3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>名前を付けて保存</t>
     <rPh sb="1" eb="2">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>template1.pdf</t>
@@ -212,15 +212,15 @@
   </si>
   <si>
     <t>ケースNo</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>File\Case001</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>File\Case002</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -237,7 +237,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>AutoTest</t>
@@ -354,8 +354,48 @@
     <t>下</t>
   </si>
   <si>
+    <t>Index:1</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WindowsForms10.BUTTON.app.0.141b42a_r6_ad1</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>237</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Copy:A我BC</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Click:2</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
     <r>
-      <t>W</t>
+      <t>25</t>
     </r>
     <r>
       <rPr>
@@ -366,49 +406,37 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ait</t>
+      <t>.1</t>
     </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Index:1</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>WindowsForms10.BUTTON.app.0.141b42a_r6_ad1</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Key:AAA</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,36 +602,37 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -950,7 +979,7 @@
       <c r="G2" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1133,17 +1162,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1153,7 +1182,8 @@
     <col min="3" max="3" width="49.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="5"/>
     <col min="5" max="5" width="12" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="6" max="6" width="14.625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -1217,8 +1247,8 @@
       <c r="I2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>90</v>
+      <c r="J2" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>51</v>
@@ -1873,16 +1903,16 @@
         <v>70</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="8">
-        <v>227</v>
-      </c>
-      <c r="E28" s="8">
-        <v>170</v>
+        <v>88</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -1893,22 +1923,24 @@
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" s="8">
-        <v>26</v>
+      <c r="A29" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="8">
-        <v>745</v>
-      </c>
-      <c r="E29" s="8">
-        <v>170</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -1919,19 +1951,19 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D30" s="8">
-        <v>221</v>
+        <v>745</v>
       </c>
       <c r="E30" s="8">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1944,24 +1976,22 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="8">
+        <v>221</v>
+      </c>
+      <c r="E31" s="8">
         <v>72</v>
       </c>
-      <c r="D31" s="8">
-        <v>227</v>
-      </c>
-      <c r="E31" s="8">
-        <v>88</v>
-      </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1971,22 +2001,24 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D32" s="8">
-        <v>579</v>
+        <v>227</v>
       </c>
       <c r="E32" s="8">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1996,68 +2028,68 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>96</v>
+        <v>73</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D33" s="8">
-        <v>826</v>
+        <v>579</v>
       </c>
       <c r="E33" s="8">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="7" t="s">
-        <v>93</v>
-      </c>
+      <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D34" s="8">
-        <v>280</v>
+        <v>826</v>
       </c>
       <c r="E34" s="8">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="J34" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="8">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="E35" s="8">
         <v>114</v>
@@ -2073,10 +2105,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>57</v>
@@ -2085,13 +2117,11 @@
         <v>227</v>
       </c>
       <c r="E36" s="8">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -2100,23 +2130,25 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D37" s="8">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E37" s="8">
-        <v>515</v>
+        <v>129</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -2125,7 +2157,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>54</v>
@@ -2137,7 +2169,7 @@
         <v>221</v>
       </c>
       <c r="E38" s="8">
-        <v>31</v>
+        <v>515</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -2150,16 +2182,16 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D39" s="8">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E39" s="8">
         <v>31</v>
@@ -2175,16 +2207,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D40" s="8">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="E40" s="8">
         <v>31</v>
@@ -2200,19 +2232,19 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D41" s="8">
         <v>8</v>
       </c>
       <c r="E41" s="8">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -2225,10 +2257,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>57</v>
@@ -2237,7 +2269,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="8">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -2250,19 +2282,19 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D43" s="8">
         <v>8</v>
       </c>
       <c r="E43" s="8">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -2275,19 +2307,19 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D44" s="8">
         <v>8</v>
       </c>
       <c r="E44" s="8">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -2300,10 +2332,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>57</v>
@@ -2312,7 +2344,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="8">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2325,10 +2357,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>57</v>
@@ -2337,7 +2369,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="8">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2350,19 +2382,19 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D47" s="8">
         <v>8</v>
       </c>
       <c r="E47" s="8">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -2375,19 +2407,19 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D48" s="8">
         <v>8</v>
       </c>
       <c r="E48" s="8">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -2400,10 +2432,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>57</v>
@@ -2412,7 +2444,7 @@
         <v>8</v>
       </c>
       <c r="E49" s="8">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -2425,10 +2457,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>57</v>
@@ -2437,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="E50" s="8">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -2450,26 +2482,24 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D51" s="8">
-        <v>566</v>
+        <v>8</v>
       </c>
       <c r="E51" s="8">
-        <v>358</v>
+        <v>31</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -2477,33 +2507,62 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D52" s="8">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E52" s="8">
-        <v>498</v>
-      </c>
-      <c r="F52" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="8">
+        <v>49</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="8">
+        <v>569</v>
+      </c>
+      <c r="E53" s="8">
+        <v>498</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2568,7 +2627,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>